--- a/pose_and_data.xlsx
+++ b/pose_and_data.xlsx
@@ -443,7 +443,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:X21"/>
+  <dimension ref="A1:X41"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -525,25 +525,25 @@
     </row>
     <row r="2" spans="1:24">
       <c r="A2">
-        <v>0.04552754156143372</v>
+        <v>0</v>
       </c>
       <c r="B2">
-        <v>0.2000532169585597</v>
+        <v>0</v>
       </c>
       <c r="C2">
         <v>0</v>
       </c>
       <c r="D2">
-        <v>-0.05419169023717017</v>
+        <v>0</v>
       </c>
       <c r="E2">
         <v>0</v>
       </c>
       <c r="F2">
-        <v>0.4655959505147749</v>
+        <v>0</v>
       </c>
       <c r="G2">
-        <v>0.02707928422097175</v>
+        <v>0</v>
       </c>
       <c r="H2">
         <v>0</v>
@@ -555,31 +555,31 @@
         <v>0</v>
       </c>
       <c r="K2">
-        <v>0.02276180484139744</v>
+        <v>0</v>
       </c>
       <c r="L2">
-        <v>0.9997409165580661</v>
+        <v>1</v>
       </c>
       <c r="M2">
-        <v>0.07646995794961921</v>
+        <v>-0.8975890635774629</v>
       </c>
       <c r="N2">
-        <v>0.2108978623732404</v>
+        <v>0.002269930068912565</v>
       </c>
       <c r="O2">
         <v>0</v>
       </c>
       <c r="P2">
-        <v>-0.01438031767112231</v>
+        <v>-0.2840740385001697</v>
       </c>
       <c r="Q2">
         <v>0</v>
       </c>
       <c r="R2">
-        <v>0.4963319272393669</v>
+        <v>-0.006481725259633674</v>
       </c>
       <c r="S2">
-        <v>0.03758989265008108</v>
+        <v>0.0008806429759787866</v>
       </c>
       <c r="T2">
         <v>0</v>
@@ -591,33 +591,33 @@
         <v>0</v>
       </c>
       <c r="W2">
-        <v>0.03822566361634535</v>
+        <v>-0.4338797579804758</v>
       </c>
       <c r="X2">
-        <v>0.9992691322367013</v>
+        <v>0.9009707851061564</v>
       </c>
     </row>
     <row r="3" spans="1:24">
       <c r="A3">
-        <v>0.05283509021904942</v>
+        <v>0</v>
       </c>
       <c r="B3">
-        <v>0.200015969163662</v>
+        <v>0</v>
       </c>
       <c r="C3">
         <v>0</v>
       </c>
       <c r="D3">
-        <v>-0.04298379099860496</v>
+        <v>0</v>
       </c>
       <c r="E3">
         <v>0</v>
       </c>
       <c r="F3">
-        <v>0.8662086646926822</v>
+        <v>0</v>
       </c>
       <c r="G3">
-        <v>0.04794979240929553</v>
+        <v>0</v>
       </c>
       <c r="H3">
         <v>0</v>
@@ -629,31 +629,31 @@
         <v>0</v>
       </c>
       <c r="K3">
-        <v>0.02641447247456019</v>
+        <v>0</v>
       </c>
       <c r="L3">
-        <v>0.9996510769482974</v>
+        <v>1</v>
       </c>
       <c r="M3">
-        <v>0.06966871370251862</v>
+        <v>-1.465722684902207</v>
       </c>
       <c r="N3">
-        <v>0.226997948357352</v>
+        <v>0.002056190604461569</v>
       </c>
       <c r="O3">
         <v>0</v>
       </c>
       <c r="P3">
-        <v>-0.1116951177968986</v>
+        <v>-0.2840740385001697</v>
       </c>
       <c r="Q3">
         <v>0</v>
       </c>
       <c r="R3">
-        <v>0.9316948423396544</v>
+        <v>-0.01071685381986171</v>
       </c>
       <c r="S3">
-        <v>0.07256817832747689</v>
+        <v>0.002723899753223029</v>
       </c>
       <c r="T3">
         <v>0</v>
@@ -665,33 +665,33 @@
         <v>0</v>
       </c>
       <c r="W3">
-        <v>0.03482731242236364</v>
+        <v>-0.6689991013225609</v>
       </c>
       <c r="X3">
-        <v>0.9993933451396578</v>
+        <v>0.7432632120787398</v>
       </c>
     </row>
     <row r="4" spans="1:24">
       <c r="A4">
-        <v>0.08616355611917541</v>
+        <v>0</v>
       </c>
       <c r="B4">
-        <v>0.199882628000624</v>
+        <v>0</v>
       </c>
       <c r="C4">
         <v>0</v>
       </c>
       <c r="D4">
-        <v>0.08226242766406038</v>
+        <v>0</v>
       </c>
       <c r="E4">
         <v>0</v>
       </c>
       <c r="F4">
-        <v>1.260169549164907</v>
+        <v>0</v>
       </c>
       <c r="G4">
-        <v>0.06348931459718496</v>
+        <v>0</v>
       </c>
       <c r="H4">
         <v>0</v>
@@ -703,31 +703,31 @@
         <v>0</v>
       </c>
       <c r="K4">
-        <v>0.04306845238193868</v>
+        <v>0</v>
       </c>
       <c r="L4">
-        <v>0.9990721237275237</v>
+        <v>1</v>
       </c>
       <c r="M4">
-        <v>0.09455163286655457</v>
+        <v>-2.034038272124903</v>
       </c>
       <c r="N4">
-        <v>0.1999551611750475</v>
+        <v>0.003866787651095561</v>
       </c>
       <c r="O4">
         <v>0</v>
       </c>
       <c r="P4">
-        <v>0.1565320925036523</v>
+        <v>-0.2840740385001697</v>
       </c>
       <c r="Q4">
         <v>0</v>
       </c>
       <c r="R4">
-        <v>1.363483227244365</v>
+        <v>-0.01347351927434314</v>
       </c>
       <c r="S4">
-        <v>0.09017503169611508</v>
+        <v>0.0004865816272634868</v>
       </c>
       <c r="T4">
         <v>0</v>
@@ -739,33 +739,33 @@
         <v>0</v>
       </c>
       <c r="W4">
-        <v>0.04725820813728548</v>
+        <v>-0.8505441558481657</v>
       </c>
       <c r="X4">
-        <v>0.9988827067096783</v>
+        <v>0.5259036403682058</v>
       </c>
     </row>
     <row r="5" spans="1:24">
       <c r="A5">
-        <v>0.2622085876143257</v>
+        <v>0</v>
       </c>
       <c r="B5">
-        <v>0.1150553100586045</v>
+        <v>0</v>
       </c>
       <c r="C5">
         <v>0</v>
       </c>
       <c r="D5">
-        <v>0.2469077379058852</v>
+        <v>0</v>
       </c>
       <c r="E5">
         <v>0</v>
       </c>
       <c r="F5">
-        <v>1.628834350679758</v>
+        <v>0</v>
       </c>
       <c r="G5">
-        <v>0.1111586489467305</v>
+        <v>0</v>
       </c>
       <c r="H5">
         <v>0</v>
@@ -777,31 +777,31 @@
         <v>0</v>
       </c>
       <c r="K5">
-        <v>0.1307290390136657</v>
+        <v>0</v>
       </c>
       <c r="L5">
-        <v>0.9914181349756335</v>
+        <v>1</v>
       </c>
       <c r="M5">
-        <v>0.3553006237141801</v>
+        <v>-2.602092175172593</v>
       </c>
       <c r="N5">
-        <v>0.02889817104231725</v>
+        <v>0.004501397635901629</v>
       </c>
       <c r="O5">
         <v>0</v>
       </c>
       <c r="P5">
-        <v>0.3991082561279332</v>
+        <v>-0.2840740385001697</v>
       </c>
       <c r="Q5">
         <v>0</v>
       </c>
       <c r="R5">
-        <v>1.744699557091554</v>
+        <v>-0.01922340126452349</v>
       </c>
       <c r="S5">
-        <v>0.1504787524818182</v>
+        <v>0.001165649693965731</v>
       </c>
       <c r="T5">
         <v>0</v>
@@ -813,33 +813,33 @@
         <v>0</v>
       </c>
       <c r="W5">
-        <v>0.1767173554796024</v>
+        <v>0.9638374853596842</v>
       </c>
       <c r="X5">
-        <v>0.9842616401507761</v>
+        <v>-0.2664907161901153</v>
       </c>
     </row>
     <row r="6" spans="1:24">
       <c r="A6">
-        <v>0.8188336552556076</v>
+        <v>0</v>
       </c>
       <c r="B6">
-        <v>-7.060535908765087E-07</v>
+        <v>0</v>
       </c>
       <c r="C6">
         <v>0</v>
       </c>
       <c r="D6">
-        <v>0.2666372245901577</v>
+        <v>0</v>
       </c>
       <c r="E6">
         <v>0</v>
       </c>
       <c r="F6">
-        <v>1.631586159650594</v>
+        <v>0</v>
       </c>
       <c r="G6">
-        <v>0.1119304950916804</v>
+        <v>0</v>
       </c>
       <c r="H6">
         <v>0</v>
@@ -851,31 +851,31 @@
         <v>0</v>
       </c>
       <c r="K6">
-        <v>0.3980744207073816</v>
+        <v>0</v>
       </c>
       <c r="L6">
-        <v>0.9173531247989961</v>
+        <v>1</v>
       </c>
       <c r="M6">
-        <v>1.024254047138327</v>
+        <v>3.112938112521226</v>
       </c>
       <c r="N6">
-        <v>-0.03139702155269922</v>
+        <v>0.003643193999996241</v>
       </c>
       <c r="O6">
         <v>0</v>
       </c>
       <c r="P6">
-        <v>0.3465685379343794</v>
+        <v>-0.2840740385001697</v>
       </c>
       <c r="Q6">
         <v>0</v>
       </c>
       <c r="R6">
-        <v>1.703104755532026</v>
+        <v>-0.02282911235292548</v>
       </c>
       <c r="S6">
-        <v>0.1140167874756939</v>
+        <v>0.009614239700813682</v>
       </c>
       <c r="T6">
         <v>0</v>
@@ -887,33 +887,33 @@
         <v>0</v>
       </c>
       <c r="W6">
-        <v>0.4900324893082941</v>
+        <v>0.9998973664151756</v>
       </c>
       <c r="X6">
-        <v>0.8717041696712921</v>
+        <v>0.01432678037788441</v>
       </c>
     </row>
     <row r="7" spans="1:24">
       <c r="A7">
-        <v>1.355832664775042</v>
+        <v>0</v>
       </c>
       <c r="B7">
-        <v>6.434693623590885E-06</v>
+        <v>0</v>
       </c>
       <c r="C7">
         <v>0</v>
       </c>
       <c r="D7">
-        <v>0.2741656838319965</v>
+        <v>0</v>
       </c>
       <c r="E7">
         <v>0</v>
       </c>
       <c r="F7">
-        <v>1.631586034210836</v>
+        <v>0</v>
       </c>
       <c r="G7">
-        <v>0.1119316731428284</v>
+        <v>0</v>
       </c>
       <c r="H7">
         <v>0</v>
@@ -925,31 +925,31 @@
         <v>0</v>
       </c>
       <c r="K7">
-        <v>0.6271714570948212</v>
+        <v>0</v>
       </c>
       <c r="L7">
-        <v>0.7788812254802133</v>
+        <v>1</v>
       </c>
       <c r="M7">
-        <v>1.685310609898835</v>
+        <v>2.544642713020073</v>
       </c>
       <c r="N7">
-        <v>-0.03161383958462183</v>
+        <v>0.003865064461136088</v>
       </c>
       <c r="O7">
         <v>0</v>
       </c>
       <c r="P7">
-        <v>0.2665643758567481</v>
+        <v>-0.2840740385001697</v>
       </c>
       <c r="Q7">
         <v>0</v>
       </c>
       <c r="R7">
-        <v>1.691472668730447</v>
+        <v>-0.02511654096177142</v>
       </c>
       <c r="S7">
-        <v>0.05815186267422656</v>
+        <v>0.01669344396368497</v>
       </c>
       <c r="T7">
         <v>0</v>
@@ -961,33 +961,33 @@
         <v>0</v>
       </c>
       <c r="W7">
-        <v>0.7464128101278353</v>
+        <v>0.9557860551272098</v>
       </c>
       <c r="X7">
-        <v>0.6654832205826591</v>
+        <v>0.2940629470442789</v>
       </c>
     </row>
     <row r="8" spans="1:24">
       <c r="A8">
-        <v>1.886227210544958</v>
+        <v>0</v>
       </c>
       <c r="B8">
-        <v>6.655844822884684E-06</v>
+        <v>0</v>
       </c>
       <c r="C8">
         <v>0</v>
       </c>
       <c r="D8">
-        <v>0.273490228295056</v>
+        <v>0</v>
       </c>
       <c r="E8">
         <v>0</v>
       </c>
       <c r="F8">
-        <v>1.631585850017365</v>
+        <v>0</v>
       </c>
       <c r="G8">
-        <v>0.1119306858662156</v>
+        <v>0</v>
       </c>
       <c r="H8">
         <v>0</v>
@@ -999,31 +999,31 @@
         <v>0</v>
       </c>
       <c r="K8">
-        <v>0.8093905500942762</v>
+        <v>0</v>
       </c>
       <c r="L8">
-        <v>0.5872707530756873</v>
+        <v>1</v>
       </c>
       <c r="M8">
-        <v>2.332883289469306</v>
+        <v>1.976520668564622</v>
       </c>
       <c r="N8">
-        <v>-0.02698838636173063</v>
+        <v>0.003483562366222793</v>
       </c>
       <c r="O8">
         <v>0</v>
       </c>
       <c r="P8">
-        <v>0.3189493740146517</v>
+        <v>-0.2840740385001697</v>
       </c>
       <c r="Q8">
         <v>0</v>
       </c>
       <c r="R8">
-        <v>1.713266361226339</v>
+        <v>-0.02273050221450713</v>
       </c>
       <c r="S8">
-        <v>0.009054902547098304</v>
+        <v>0.02495406154105559</v>
       </c>
       <c r="T8">
         <v>0</v>
@@ -1035,33 +1035,33 @@
         <v>0</v>
       </c>
       <c r="W8">
-        <v>0.9193564731494863</v>
+        <v>0.8350701770523188</v>
       </c>
       <c r="X8">
-        <v>0.3934255651049354</v>
+        <v>0.5501434352946593</v>
       </c>
     </row>
     <row r="9" spans="1:24">
       <c r="A9">
-        <v>2.40515938678059</v>
+        <v>0</v>
       </c>
       <c r="B9">
-        <v>-1.518693424709305E-06</v>
+        <v>0</v>
       </c>
       <c r="C9">
         <v>0</v>
       </c>
       <c r="D9">
-        <v>0.2646149623873587</v>
+        <v>0</v>
       </c>
       <c r="E9">
         <v>0</v>
       </c>
       <c r="F9">
-        <v>1.631589282910924</v>
+        <v>0</v>
       </c>
       <c r="G9">
-        <v>0.1119266243317447</v>
+        <v>0</v>
       </c>
       <c r="H9">
         <v>0</v>
@@ -1073,31 +1073,31 @@
         <v>0</v>
       </c>
       <c r="K9">
-        <v>0.9329707555610653</v>
+        <v>0</v>
       </c>
       <c r="L9">
-        <v>0.3599521763621035</v>
+        <v>1</v>
       </c>
       <c r="M9">
-        <v>2.947201001128884</v>
+        <v>1.408571701330458</v>
       </c>
       <c r="N9">
-        <v>-0.02173788339447319</v>
+        <v>0.003779519915266354</v>
       </c>
       <c r="O9">
         <v>0</v>
       </c>
       <c r="P9">
-        <v>0.3156739678828229</v>
+        <v>-0.2840740385001697</v>
       </c>
       <c r="Q9">
         <v>0</v>
       </c>
       <c r="R9">
-        <v>1.757447898183803</v>
+        <v>-0.01942356383274421</v>
       </c>
       <c r="S9">
-        <v>-0.01489039608865243</v>
+        <v>0.03183848103686549</v>
       </c>
       <c r="T9">
         <v>0</v>
@@ -1109,33 +1109,33 @@
         <v>0</v>
       </c>
       <c r="W9">
-        <v>0.9952802031088164</v>
+        <v>0.6474897599471712</v>
       </c>
       <c r="X9">
-        <v>0.0970428632083435</v>
+        <v>0.7620741504365272</v>
       </c>
     </row>
     <row r="10" spans="1:24">
       <c r="A10">
-        <v>2.928607834589135</v>
+        <v>0</v>
       </c>
       <c r="B10">
-        <v>9.05201454850777E-07</v>
+        <v>0</v>
       </c>
       <c r="C10">
         <v>0</v>
       </c>
       <c r="D10">
-        <v>0.2809716545359883</v>
+        <v>0</v>
       </c>
       <c r="E10">
         <v>0</v>
       </c>
       <c r="F10">
-        <v>1.631590063815886</v>
+        <v>0</v>
       </c>
       <c r="G10">
-        <v>0.1119267591629342</v>
+        <v>0</v>
       </c>
       <c r="H10">
         <v>0</v>
@@ -1147,31 +1147,31 @@
         <v>0</v>
       </c>
       <c r="K10">
-        <v>0.9943350400825647</v>
+        <v>0</v>
       </c>
       <c r="L10">
-        <v>0.1062912417088279</v>
+        <v>1</v>
       </c>
       <c r="M10">
-        <v>-2.696173444018119</v>
+        <v>0.8403117269982061</v>
       </c>
       <c r="N10">
-        <v>-0.02783641556569242</v>
+        <v>0.003253992927079876</v>
       </c>
       <c r="O10">
         <v>0</v>
       </c>
       <c r="P10">
-        <v>0.3534972379229733</v>
+        <v>-0.2840740385001697</v>
       </c>
       <c r="Q10">
         <v>0</v>
       </c>
       <c r="R10">
-        <v>1.813460252801648</v>
+        <v>-0.01061344471670849</v>
       </c>
       <c r="S10">
-        <v>-0.008560587860195137</v>
+        <v>0.03467493383060535</v>
       </c>
       <c r="T10">
         <v>0</v>
@@ -1183,33 +1183,33 @@
         <v>0</v>
       </c>
       <c r="W10">
-        <v>0.9753025515261662</v>
+        <v>0.4079027653432734</v>
       </c>
       <c r="X10">
-        <v>-0.2208731151284603</v>
+        <v>0.9130253742505247</v>
       </c>
     </row>
     <row r="11" spans="1:24">
       <c r="A11">
-        <v>-2.833609906828376</v>
+        <v>0</v>
       </c>
       <c r="B11">
-        <v>-8.439704500786057E-05</v>
+        <v>0</v>
       </c>
       <c r="C11">
         <v>0</v>
       </c>
       <c r="D11">
-        <v>0.2635871704875235</v>
+        <v>0</v>
       </c>
       <c r="E11">
         <v>0</v>
       </c>
       <c r="F11">
-        <v>1.631582743492475</v>
+        <v>0</v>
       </c>
       <c r="G11">
-        <v>0.1119277329510611</v>
+        <v>0</v>
       </c>
       <c r="H11">
         <v>0</v>
@@ -1221,31 +1221,31 @@
         <v>0</v>
       </c>
       <c r="K11">
-        <v>0.9881667400597868</v>
+        <v>0</v>
       </c>
       <c r="L11">
-        <v>-0.1533834862024392</v>
+        <v>1</v>
       </c>
       <c r="M11">
-        <v>-2.051566356792462</v>
+        <v>0.2721204698917924</v>
       </c>
       <c r="N11">
-        <v>-0.02761383502127023</v>
+        <v>0.002910118917070013</v>
       </c>
       <c r="O11">
         <v>0</v>
       </c>
       <c r="P11">
-        <v>0.3040338459904161</v>
+        <v>-0.2840740385001697</v>
       </c>
       <c r="Q11">
         <v>0</v>
       </c>
       <c r="R11">
-        <v>1.848755602224256</v>
+        <v>-0.003032368661962957</v>
       </c>
       <c r="S11">
-        <v>0.02663607959786015</v>
+        <v>0.0338853399620947</v>
       </c>
       <c r="T11">
         <v>0</v>
@@ -1257,33 +1257,33 @@
         <v>0</v>
       </c>
       <c r="W11">
-        <v>-0.8551204743388841</v>
+        <v>0.135640823383447</v>
       </c>
       <c r="X11">
-        <v>0.5184293340142337</v>
+        <v>0.9907580769450535</v>
       </c>
     </row>
     <row r="12" spans="1:24">
       <c r="A12">
-        <v>-2.323460014636357</v>
+        <v>0</v>
       </c>
       <c r="B12">
-        <v>1.090815126190878E-05</v>
+        <v>0</v>
       </c>
       <c r="C12">
         <v>0</v>
       </c>
       <c r="D12">
-        <v>0.2599365380239927</v>
+        <v>0</v>
       </c>
       <c r="E12">
         <v>0</v>
       </c>
       <c r="F12">
-        <v>1.631569848014724</v>
+        <v>0</v>
       </c>
       <c r="G12">
-        <v>0.1119208902343245</v>
+        <v>0</v>
       </c>
       <c r="H12">
         <v>0</v>
@@ -1295,31 +1295,31 @@
         <v>0</v>
       </c>
       <c r="K12">
-        <v>0.9174925967741852</v>
+        <v>0</v>
       </c>
       <c r="L12">
-        <v>-0.3977528565133913</v>
+        <v>1</v>
       </c>
       <c r="M12">
-        <v>-1.442762027422897</v>
+        <v>-0.2960250052744283</v>
       </c>
       <c r="N12">
-        <v>-0.03644178131889603</v>
+        <v>0.003012568074720018</v>
       </c>
       <c r="O12">
         <v>0</v>
       </c>
       <c r="P12">
-        <v>0.3440649943389131</v>
+        <v>-0.2840740385001697</v>
       </c>
       <c r="Q12">
         <v>0</v>
       </c>
       <c r="R12">
-        <v>1.857540124331437</v>
+        <v>0.00285412232962569</v>
       </c>
       <c r="S12">
-        <v>0.07572984546172543</v>
+        <v>0.03120490998961494</v>
       </c>
       <c r="T12">
         <v>0</v>
@@ -1331,33 +1331,33 @@
         <v>0</v>
       </c>
       <c r="W12">
-        <v>-0.6604222968729851</v>
+        <v>-0.1474726587064873</v>
       </c>
       <c r="X12">
-        <v>0.7508943932358336</v>
+        <v>0.9890661327403946</v>
       </c>
     </row>
     <row r="13" spans="1:24">
       <c r="A13">
-        <v>-1.821026082382855</v>
+        <v>0</v>
       </c>
       <c r="B13">
-        <v>-0.0001083139142409643</v>
+        <v>0</v>
       </c>
       <c r="C13">
         <v>0</v>
       </c>
       <c r="D13">
-        <v>0.2528401024605765</v>
+        <v>0</v>
       </c>
       <c r="E13">
         <v>0</v>
       </c>
       <c r="F13">
-        <v>1.631562448534621</v>
+        <v>0</v>
       </c>
       <c r="G13">
-        <v>0.1119112392933399</v>
+        <v>0</v>
       </c>
       <c r="H13">
         <v>0</v>
@@ -1369,31 +1369,31 @@
         <v>0</v>
       </c>
       <c r="K13">
-        <v>-0.789818512623552</v>
+        <v>0</v>
       </c>
       <c r="L13">
-        <v>0.6133406207949381</v>
+        <v>1</v>
       </c>
       <c r="M13">
-        <v>-0.7995437947928133</v>
+        <v>-0.8641360472582935</v>
       </c>
       <c r="N13">
-        <v>-0.02653203629911621</v>
+        <v>0.00327191836040201</v>
       </c>
       <c r="O13">
         <v>0</v>
       </c>
       <c r="P13">
-        <v>0.3520907088527927</v>
+        <v>-0.2840740385001697</v>
       </c>
       <c r="Q13">
         <v>0</v>
       </c>
       <c r="R13">
-        <v>1.837160622921887</v>
+        <v>0.00701695239058104</v>
       </c>
       <c r="S13">
-        <v>0.1200975130505893</v>
+        <v>0.02629275872974248</v>
       </c>
       <c r="T13">
         <v>0</v>
@@ -1405,33 +1405,33 @@
         <v>0</v>
       </c>
       <c r="W13">
-        <v>-0.3892082357687986</v>
+        <v>-0.4187496723178614</v>
       </c>
       <c r="X13">
-        <v>0.9211497973781133</v>
+        <v>0.9081017079235584</v>
       </c>
     </row>
     <row r="14" spans="1:24">
       <c r="A14">
-        <v>-1.29338749220342</v>
+        <v>0</v>
       </c>
       <c r="B14">
-        <v>6.095925697102996E-06</v>
+        <v>0</v>
       </c>
       <c r="C14">
         <v>0</v>
       </c>
       <c r="D14">
-        <v>0.2765153450272594</v>
+        <v>0</v>
       </c>
       <c r="E14">
         <v>0</v>
       </c>
       <c r="F14">
-        <v>1.631562477611196</v>
+        <v>0</v>
       </c>
       <c r="G14">
-        <v>0.1119001226603807</v>
+        <v>0</v>
       </c>
       <c r="H14">
         <v>0</v>
@@ -1443,31 +1443,31 @@
         <v>0</v>
       </c>
       <c r="K14">
-        <v>-0.6025510476304666</v>
+        <v>0</v>
       </c>
       <c r="L14">
-        <v>0.7980803436994468</v>
+        <v>1</v>
       </c>
       <c r="M14">
-        <v>-0.1292389094225889</v>
+        <v>-1.432285708255473</v>
       </c>
       <c r="N14">
-        <v>-0.03618979876905674</v>
+        <v>0.003000902957181509</v>
       </c>
       <c r="O14">
         <v>0</v>
       </c>
       <c r="P14">
-        <v>0.3569645987465197</v>
+        <v>-0.2840740385001697</v>
       </c>
       <c r="Q14">
         <v>0</v>
       </c>
       <c r="R14">
-        <v>1.78917507952335</v>
+        <v>0.006721861006185555</v>
       </c>
       <c r="S14">
-        <v>0.1442494582983415</v>
+        <v>0.01967822389124119</v>
       </c>
       <c r="T14">
         <v>0</v>
@@ -1479,33 +1479,33 @@
         <v>0</v>
       </c>
       <c r="W14">
-        <v>-0.06457449247099942</v>
+        <v>-0.6564799497808229</v>
       </c>
       <c r="X14">
-        <v>0.9979128894458237</v>
+        <v>0.7543434731843103</v>
       </c>
     </row>
     <row r="15" spans="1:24">
       <c r="A15">
-        <v>-0.7950535712385725</v>
+        <v>0</v>
       </c>
       <c r="B15">
-        <v>3.951014745972712E-05</v>
+        <v>0</v>
       </c>
       <c r="C15">
         <v>0</v>
       </c>
       <c r="D15">
-        <v>0.2378753297484169</v>
+        <v>0</v>
       </c>
       <c r="E15">
         <v>0</v>
       </c>
       <c r="F15">
-        <v>1.648052278737989</v>
+        <v>0</v>
       </c>
       <c r="G15">
-        <v>0.07825785449127259</v>
+        <v>0</v>
       </c>
       <c r="H15">
         <v>0</v>
@@ -1517,31 +1517,31 @@
         <v>0</v>
       </c>
       <c r="K15">
-        <v>-0.3871391723407074</v>
+        <v>0</v>
       </c>
       <c r="L15">
-        <v>0.9220212910987208</v>
+        <v>1</v>
       </c>
       <c r="M15">
-        <v>0.4966108598246575</v>
+        <v>-2.000407046502866</v>
       </c>
       <c r="N15">
-        <v>-0.01142372310307241</v>
+        <v>0.003081558487126422</v>
       </c>
       <c r="O15">
         <v>0</v>
       </c>
       <c r="P15">
-        <v>0.2795694742943913</v>
+        <v>-0.2840740385001697</v>
       </c>
       <c r="Q15">
         <v>0</v>
       </c>
       <c r="R15">
-        <v>1.781283368029574</v>
+        <v>0.004234226801343154</v>
       </c>
       <c r="S15">
-        <v>0.1388646355806426</v>
+        <v>0.01422020750294007</v>
       </c>
       <c r="T15">
         <v>0</v>
@@ -1553,33 +1553,33 @@
         <v>0</v>
       </c>
       <c r="W15">
-        <v>0.2457617148143843</v>
+        <v>-0.8415809314615992</v>
       </c>
       <c r="X15">
-        <v>0.9693302737104074</v>
+        <v>0.5401310357683838</v>
       </c>
     </row>
     <row r="16" spans="1:24">
       <c r="A16">
-        <v>-0.2693718772164655</v>
+        <v>0</v>
       </c>
       <c r="B16">
-        <v>1.281962404116373E-06</v>
+        <v>0</v>
       </c>
       <c r="C16">
         <v>0</v>
       </c>
       <c r="D16">
-        <v>0.2609030080831671</v>
+        <v>0</v>
       </c>
       <c r="E16">
         <v>0</v>
       </c>
       <c r="F16">
-        <v>1.648043263596063</v>
+        <v>0</v>
       </c>
       <c r="G16">
-        <v>0.07826657177286138</v>
+        <v>0</v>
       </c>
       <c r="H16">
         <v>0</v>
@@ -1591,31 +1591,31 @@
         <v>0</v>
       </c>
       <c r="K16">
-        <v>-0.1342791005236542</v>
+        <v>0</v>
       </c>
       <c r="L16">
-        <v>0.9909435519556895</v>
+        <v>1</v>
       </c>
       <c r="M16">
-        <v>1.113206779639794</v>
+        <v>-2.568544504815645</v>
       </c>
       <c r="N16">
-        <v>-0.03179714006279272</v>
+        <v>0.003027236045971602</v>
       </c>
       <c r="O16">
         <v>0</v>
       </c>
       <c r="P16">
-        <v>0.3047647412844268</v>
+        <v>-0.2840740385001697</v>
       </c>
       <c r="Q16">
         <v>0</v>
       </c>
       <c r="R16">
-        <v>1.742801031643695</v>
+        <v>-0.001136985036458692</v>
       </c>
       <c r="S16">
-        <v>0.09898895957843896</v>
+        <v>0.01150820327438039</v>
       </c>
       <c r="T16">
         <v>0</v>
@@ -1627,33 +1627,33 @@
         <v>0</v>
       </c>
       <c r="W16">
-        <v>0.5283053439849665</v>
+        <v>0.9592320334008945</v>
       </c>
       <c r="X16">
-        <v>0.8490544526218129</v>
+        <v>-0.2826197199375607</v>
       </c>
     </row>
     <row r="17" spans="1:24">
       <c r="A17">
-        <v>0.2407076643316097</v>
+        <v>0</v>
       </c>
       <c r="B17">
-        <v>1.261678557624577E-06</v>
+        <v>0</v>
       </c>
       <c r="C17">
         <v>0</v>
       </c>
       <c r="D17">
-        <v>0.2604436150638991</v>
+        <v>0</v>
       </c>
       <c r="E17">
         <v>0</v>
       </c>
       <c r="F17">
-        <v>1.648044804751617</v>
+        <v>0</v>
       </c>
       <c r="G17">
-        <v>0.07826486029215424</v>
+        <v>0</v>
       </c>
       <c r="H17">
         <v>0</v>
@@ -1665,31 +1665,31 @@
         <v>0</v>
       </c>
       <c r="K17">
-        <v>0.1200634874176266</v>
+        <v>0</v>
       </c>
       <c r="L17">
-        <v>0.9927662156767409</v>
+        <v>1</v>
       </c>
       <c r="M17">
-        <v>1.789999082025409</v>
+        <v>-3.136844703179528</v>
       </c>
       <c r="N17">
-        <v>-0.03002347882797685</v>
+        <v>0.003103691917617872</v>
       </c>
       <c r="O17">
         <v>0</v>
       </c>
       <c r="P17">
-        <v>0.3618350359590914</v>
+        <v>-0.2840740385001697</v>
       </c>
       <c r="Q17">
         <v>0</v>
       </c>
       <c r="R17">
-        <v>1.737395143731749</v>
+        <v>-0.007064139240441298</v>
       </c>
       <c r="S17">
-        <v>0.04685961820168353</v>
+        <v>0.01142764451157937</v>
       </c>
       <c r="T17">
         <v>0</v>
@@ -1701,33 +1701,33 @@
         <v>0</v>
       </c>
       <c r="W17">
-        <v>0.7802087940650785</v>
+        <v>0.9999971821221861</v>
       </c>
       <c r="X17">
-        <v>0.6255191744970861</v>
+        <v>-0.002373972975274672</v>
       </c>
     </row>
     <row r="18" spans="1:24">
       <c r="A18">
-        <v>0.7531254563706014</v>
+        <v>0</v>
       </c>
       <c r="B18">
-        <v>-5.897881738907256E-06</v>
+        <v>0</v>
       </c>
       <c r="C18">
         <v>0</v>
       </c>
       <c r="D18">
-        <v>0.2528313723885623</v>
+        <v>0</v>
       </c>
       <c r="E18">
         <v>0</v>
       </c>
       <c r="F18">
-        <v>1.648045748123633</v>
+        <v>0</v>
       </c>
       <c r="G18">
-        <v>0.07826333591623433</v>
+        <v>0</v>
       </c>
       <c r="H18">
         <v>0</v>
@@ -1739,31 +1739,31 @@
         <v>0</v>
       </c>
       <c r="K18">
-        <v>0.3677262117410571</v>
+        <v>0</v>
       </c>
       <c r="L18">
-        <v>0.9299341015354643</v>
+        <v>1</v>
       </c>
       <c r="M18">
-        <v>2.435835650550219</v>
+        <v>2.578325839253023</v>
       </c>
       <c r="N18">
-        <v>-0.03008363556814504</v>
+        <v>0.003045222598225181</v>
       </c>
       <c r="O18">
         <v>0</v>
       </c>
       <c r="P18">
-        <v>0.352650634806401</v>
+        <v>-0.2840740385001697</v>
       </c>
       <c r="Q18">
         <v>0</v>
       </c>
       <c r="R18">
-        <v>1.762077898386076</v>
+        <v>-0.01197368460408315</v>
       </c>
       <c r="S18">
-        <v>0.007115186760792076</v>
+        <v>0.01503026736150462</v>
       </c>
       <c r="T18">
         <v>0</v>
@@ -1775,33 +1775,33 @@
         <v>0</v>
       </c>
       <c r="W18">
-        <v>0.9383817906396359</v>
+        <v>0.9606027551573181</v>
       </c>
       <c r="X18">
-        <v>0.3456003689175557</v>
+        <v>0.2779250740472504</v>
       </c>
     </row>
     <row r="19" spans="1:24">
       <c r="A19">
-        <v>1.280794019674444</v>
+        <v>0</v>
       </c>
       <c r="B19">
-        <v>-1.482319606602907E-05</v>
+        <v>0</v>
       </c>
       <c r="C19">
         <v>0</v>
       </c>
       <c r="D19">
-        <v>0.2603286004871725</v>
+        <v>0</v>
       </c>
       <c r="E19">
         <v>0</v>
       </c>
       <c r="F19">
-        <v>1.648046916663338</v>
+        <v>0</v>
       </c>
       <c r="G19">
-        <v>0.07826304501973327</v>
+        <v>0</v>
       </c>
       <c r="H19">
         <v>0</v>
@@ -1813,31 +1813,31 @@
         <v>0</v>
       </c>
       <c r="K19">
-        <v>0.5975138341962809</v>
+        <v>0</v>
       </c>
       <c r="L19">
-        <v>0.8018586022136692</v>
+        <v>1</v>
       </c>
       <c r="M19">
-        <v>3.08837835768801</v>
+        <v>2.010218351035377</v>
       </c>
       <c r="N19">
-        <v>-0.03047016464155139</v>
+        <v>0.003631001350624908</v>
       </c>
       <c r="O19">
         <v>0</v>
       </c>
       <c r="P19">
-        <v>0.3691312135071651</v>
+        <v>-0.2840740385001697</v>
       </c>
       <c r="Q19">
         <v>0</v>
       </c>
       <c r="R19">
-        <v>1.812538327789226</v>
+        <v>-0.01633939336577167</v>
       </c>
       <c r="S19">
-        <v>-0.01285311308153166</v>
+        <v>0.02001206556920043</v>
       </c>
       <c r="T19">
         <v>0</v>
@@ -1849,33 +1849,33 @@
         <v>0</v>
       </c>
       <c r="W19">
-        <v>0.999646050720946</v>
+        <v>0.8442204893929007</v>
       </c>
       <c r="X19">
-        <v>0.0266040086831992</v>
+        <v>0.5359960496955283</v>
       </c>
     </row>
     <row r="20" spans="1:24">
       <c r="A20">
-        <v>1.796140014341889</v>
+        <v>0</v>
       </c>
       <c r="B20">
-        <v>1.330826811619046E-06</v>
+        <v>0</v>
       </c>
       <c r="C20">
         <v>0</v>
       </c>
       <c r="D20">
-        <v>0.2553820313757097</v>
+        <v>0</v>
       </c>
       <c r="E20">
         <v>0</v>
       </c>
       <c r="F20">
-        <v>1.648048436731625</v>
+        <v>0</v>
       </c>
       <c r="G20">
-        <v>0.07826459533049863</v>
+        <v>0</v>
       </c>
       <c r="H20">
         <v>0</v>
@@ -1887,31 +1887,31 @@
         <v>0</v>
       </c>
       <c r="K20">
-        <v>0.7821257486951325</v>
+        <v>0</v>
       </c>
       <c r="L20">
-        <v>0.6231206249419756</v>
+        <v>1</v>
       </c>
       <c r="M20">
-        <v>-2.525533665668761</v>
+        <v>1.44194189330704</v>
       </c>
       <c r="N20">
-        <v>-0.03528162047435898</v>
+        <v>0.003433252757277889</v>
       </c>
       <c r="O20">
         <v>0</v>
       </c>
       <c r="P20">
-        <v>0.3451427035814066</v>
+        <v>-0.2840740385001697</v>
       </c>
       <c r="Q20">
         <v>0</v>
       </c>
       <c r="R20">
-        <v>1.863459050004103</v>
+        <v>-0.0148925276886848</v>
       </c>
       <c r="S20">
-        <v>0.001623785755545673</v>
+        <v>0.02709165865634025</v>
       </c>
       <c r="T20">
         <v>0</v>
@@ -1923,33 +1923,33 @@
         <v>0</v>
       </c>
       <c r="W20">
-        <v>0.9529328404776293</v>
+        <v>0.6601143243003134</v>
       </c>
       <c r="X20">
-        <v>-0.3031814663518156</v>
+        <v>0.7511651475231933</v>
       </c>
     </row>
     <row r="21" spans="1:24">
       <c r="A21">
-        <v>2.326763298154917</v>
+        <v>0</v>
       </c>
       <c r="B21">
-        <v>5.962020098130769E-06</v>
+        <v>0</v>
       </c>
       <c r="C21">
         <v>0</v>
       </c>
       <c r="D21">
-        <v>0.2576711961917605</v>
+        <v>0</v>
       </c>
       <c r="E21">
         <v>0</v>
       </c>
       <c r="F21">
-        <v>1.648047379488388</v>
+        <v>0</v>
       </c>
       <c r="G21">
-        <v>0.07826616198354071</v>
+        <v>0</v>
       </c>
       <c r="H21">
         <v>0</v>
@@ -1961,31 +1961,31 @@
         <v>0</v>
       </c>
       <c r="K21">
-        <v>0.9181482902800456</v>
+        <v>0</v>
       </c>
       <c r="L21">
-        <v>0.396236945596734</v>
+        <v>1</v>
       </c>
       <c r="M21">
-        <v>-1.83230943959012</v>
+        <v>0.8737094318294911</v>
       </c>
       <c r="N21">
-        <v>-0.0294450334716989</v>
+        <v>0.003285675248232605</v>
       </c>
       <c r="O21">
         <v>0</v>
       </c>
       <c r="P21">
-        <v>0.3085164955521825</v>
+        <v>-0.2840740385001697</v>
       </c>
       <c r="Q21">
         <v>0</v>
       </c>
       <c r="R21">
-        <v>1.895626031555481</v>
+        <v>-0.009955131976356019</v>
       </c>
       <c r="S21">
-        <v>0.047018881192992</v>
+        <v>0.03208973162103795</v>
       </c>
       <c r="T21">
         <v>0</v>
@@ -1997,10 +1997,1490 @@
         <v>0</v>
       </c>
       <c r="W21">
-        <v>-0.7932661955740447</v>
+        <v>0.4230916618827777</v>
       </c>
       <c r="X21">
-        <v>0.6088749813873794</v>
+        <v>0.9060868863664617</v>
+      </c>
+    </row>
+    <row r="22" spans="1:24">
+      <c r="A22">
+        <v>0</v>
+      </c>
+      <c r="B22">
+        <v>0</v>
+      </c>
+      <c r="C22">
+        <v>0</v>
+      </c>
+      <c r="D22">
+        <v>0</v>
+      </c>
+      <c r="E22">
+        <v>0</v>
+      </c>
+      <c r="F22">
+        <v>0</v>
+      </c>
+      <c r="G22">
+        <v>0</v>
+      </c>
+      <c r="H22">
+        <v>0</v>
+      </c>
+      <c r="I22">
+        <v>0</v>
+      </c>
+      <c r="J22">
+        <v>0</v>
+      </c>
+      <c r="K22">
+        <v>0</v>
+      </c>
+      <c r="L22">
+        <v>1</v>
+      </c>
+      <c r="M22">
+        <v>0.3057492502045114</v>
+      </c>
+      <c r="N22">
+        <v>0.003221520643296237</v>
+      </c>
+      <c r="O22">
+        <v>0</v>
+      </c>
+      <c r="P22">
+        <v>-0.2840740385001697</v>
+      </c>
+      <c r="Q22">
+        <v>0</v>
+      </c>
+      <c r="R22">
+        <v>-0.003596442508489425</v>
+      </c>
+      <c r="S22">
+        <v>0.034108142875374</v>
+      </c>
+      <c r="T22">
+        <v>0</v>
+      </c>
+      <c r="U22">
+        <v>0</v>
+      </c>
+      <c r="V22">
+        <v>0</v>
+      </c>
+      <c r="W22">
+        <v>0.1522798572817153</v>
+      </c>
+      <c r="X22">
+        <v>0.9883374145838356</v>
+      </c>
+    </row>
+    <row r="23" spans="1:24">
+      <c r="A23">
+        <v>0</v>
+      </c>
+      <c r="B23">
+        <v>0</v>
+      </c>
+      <c r="C23">
+        <v>0</v>
+      </c>
+      <c r="D23">
+        <v>0</v>
+      </c>
+      <c r="E23">
+        <v>0</v>
+      </c>
+      <c r="F23">
+        <v>0</v>
+      </c>
+      <c r="G23">
+        <v>0</v>
+      </c>
+      <c r="H23">
+        <v>0</v>
+      </c>
+      <c r="I23">
+        <v>0</v>
+      </c>
+      <c r="J23">
+        <v>0</v>
+      </c>
+      <c r="K23">
+        <v>0</v>
+      </c>
+      <c r="L23">
+        <v>1</v>
+      </c>
+      <c r="M23">
+        <v>-0.2624100386299793</v>
+      </c>
+      <c r="N23">
+        <v>0.003396463875493786</v>
+      </c>
+      <c r="O23">
+        <v>0</v>
+      </c>
+      <c r="P23">
+        <v>-0.2840740385001697</v>
+      </c>
+      <c r="Q23">
+        <v>0</v>
+      </c>
+      <c r="R23">
+        <v>0.002970103363215734</v>
+      </c>
+      <c r="S23">
+        <v>0.03333202612426513</v>
+      </c>
+      <c r="T23">
+        <v>0</v>
+      </c>
+      <c r="U23">
+        <v>0</v>
+      </c>
+      <c r="V23">
+        <v>0</v>
+      </c>
+      <c r="W23">
+        <v>-0.1308288994454468</v>
+      </c>
+      <c r="X23">
+        <v>0.9914049621975336</v>
+      </c>
+    </row>
+    <row r="24" spans="1:24">
+      <c r="A24">
+        <v>0</v>
+      </c>
+      <c r="B24">
+        <v>0</v>
+      </c>
+      <c r="C24">
+        <v>0</v>
+      </c>
+      <c r="D24">
+        <v>0</v>
+      </c>
+      <c r="E24">
+        <v>0</v>
+      </c>
+      <c r="F24">
+        <v>0</v>
+      </c>
+      <c r="G24">
+        <v>0</v>
+      </c>
+      <c r="H24">
+        <v>0</v>
+      </c>
+      <c r="I24">
+        <v>0</v>
+      </c>
+      <c r="J24">
+        <v>0</v>
+      </c>
+      <c r="K24">
+        <v>0</v>
+      </c>
+      <c r="L24">
+        <v>1</v>
+      </c>
+      <c r="M24">
+        <v>-0.8305403101536586</v>
+      </c>
+      <c r="N24">
+        <v>0.003188972459689681</v>
+      </c>
+      <c r="O24">
+        <v>0</v>
+      </c>
+      <c r="P24">
+        <v>-0.2840740385001697</v>
+      </c>
+      <c r="Q24">
+        <v>0</v>
+      </c>
+      <c r="R24">
+        <v>0.007422915048890895</v>
+      </c>
+      <c r="S24">
+        <v>0.0281685282248849</v>
+      </c>
+      <c r="T24">
+        <v>0</v>
+      </c>
+      <c r="U24">
+        <v>0</v>
+      </c>
+      <c r="V24">
+        <v>0</v>
+      </c>
+      <c r="W24">
+        <v>-0.4034371389893308</v>
+      </c>
+      <c r="X24">
+        <v>0.9150073632950193</v>
+      </c>
+    </row>
+    <row r="25" spans="1:24">
+      <c r="A25">
+        <v>0</v>
+      </c>
+      <c r="B25">
+        <v>0</v>
+      </c>
+      <c r="C25">
+        <v>0</v>
+      </c>
+      <c r="D25">
+        <v>0</v>
+      </c>
+      <c r="E25">
+        <v>0</v>
+      </c>
+      <c r="F25">
+        <v>0</v>
+      </c>
+      <c r="G25">
+        <v>0</v>
+      </c>
+      <c r="H25">
+        <v>0</v>
+      </c>
+      <c r="I25">
+        <v>0</v>
+      </c>
+      <c r="J25">
+        <v>0</v>
+      </c>
+      <c r="K25">
+        <v>0</v>
+      </c>
+      <c r="L25">
+        <v>1</v>
+      </c>
+      <c r="M25">
+        <v>-1.398788918967703</v>
+      </c>
+      <c r="N25">
+        <v>0.003305186246248319</v>
+      </c>
+      <c r="O25">
+        <v>0</v>
+      </c>
+      <c r="P25">
+        <v>-0.2840740385001697</v>
+      </c>
+      <c r="Q25">
+        <v>0</v>
+      </c>
+      <c r="R25">
+        <v>0.009437809198108217</v>
+      </c>
+      <c r="S25">
+        <v>0.02205149402848437</v>
+      </c>
+      <c r="T25">
+        <v>0</v>
+      </c>
+      <c r="U25">
+        <v>0</v>
+      </c>
+      <c r="V25">
+        <v>0</v>
+      </c>
+      <c r="W25">
+        <v>-0.6437544262224879</v>
+      </c>
+      <c r="X25">
+        <v>0.7652321469455889</v>
+      </c>
+    </row>
+    <row r="26" spans="1:24">
+      <c r="A26">
+        <v>0</v>
+      </c>
+      <c r="B26">
+        <v>0</v>
+      </c>
+      <c r="C26">
+        <v>0</v>
+      </c>
+      <c r="D26">
+        <v>0</v>
+      </c>
+      <c r="E26">
+        <v>0</v>
+      </c>
+      <c r="F26">
+        <v>0</v>
+      </c>
+      <c r="G26">
+        <v>0</v>
+      </c>
+      <c r="H26">
+        <v>0</v>
+      </c>
+      <c r="I26">
+        <v>0</v>
+      </c>
+      <c r="J26">
+        <v>0</v>
+      </c>
+      <c r="K26">
+        <v>0</v>
+      </c>
+      <c r="L26">
+        <v>1</v>
+      </c>
+      <c r="M26">
+        <v>-1.966765485983224</v>
+      </c>
+      <c r="N26">
+        <v>0.003381782176419463</v>
+      </c>
+      <c r="O26">
+        <v>0</v>
+      </c>
+      <c r="P26">
+        <v>-0.2840740385001697</v>
+      </c>
+      <c r="Q26">
+        <v>0</v>
+      </c>
+      <c r="R26">
+        <v>0.007751520887554035</v>
+      </c>
+      <c r="S26">
+        <v>0.01565090395575048</v>
+      </c>
+      <c r="T26">
+        <v>0</v>
+      </c>
+      <c r="U26">
+        <v>0</v>
+      </c>
+      <c r="V26">
+        <v>0</v>
+      </c>
+      <c r="W26">
+        <v>-0.8323768793491529</v>
+      </c>
+      <c r="X26">
+        <v>0.5542100059769454</v>
+      </c>
+    </row>
+    <row r="27" spans="1:24">
+      <c r="A27">
+        <v>0</v>
+      </c>
+      <c r="B27">
+        <v>0</v>
+      </c>
+      <c r="C27">
+        <v>0</v>
+      </c>
+      <c r="D27">
+        <v>0</v>
+      </c>
+      <c r="E27">
+        <v>0</v>
+      </c>
+      <c r="F27">
+        <v>0</v>
+      </c>
+      <c r="G27">
+        <v>0</v>
+      </c>
+      <c r="H27">
+        <v>0</v>
+      </c>
+      <c r="I27">
+        <v>0</v>
+      </c>
+      <c r="J27">
+        <v>0</v>
+      </c>
+      <c r="K27">
+        <v>0</v>
+      </c>
+      <c r="L27">
+        <v>1</v>
+      </c>
+      <c r="M27">
+        <v>-2.535046294021384</v>
+      </c>
+      <c r="N27">
+        <v>0.003206068879004405</v>
+      </c>
+      <c r="O27">
+        <v>0</v>
+      </c>
+      <c r="P27">
+        <v>-0.2840740385001697</v>
+      </c>
+      <c r="Q27">
+        <v>0</v>
+      </c>
+      <c r="R27">
+        <v>0.002341786255375518</v>
+      </c>
+      <c r="S27">
+        <v>0.0119156885776699</v>
+      </c>
+      <c r="T27">
+        <v>0</v>
+      </c>
+      <c r="U27">
+        <v>0</v>
+      </c>
+      <c r="V27">
+        <v>0</v>
+      </c>
+      <c r="W27">
+        <v>0.9543640824940279</v>
+      </c>
+      <c r="X27">
+        <v>-0.2986456061041788</v>
+      </c>
+    </row>
+    <row r="28" spans="1:24">
+      <c r="A28">
+        <v>0</v>
+      </c>
+      <c r="B28">
+        <v>0</v>
+      </c>
+      <c r="C28">
+        <v>0</v>
+      </c>
+      <c r="D28">
+        <v>0</v>
+      </c>
+      <c r="E28">
+        <v>0</v>
+      </c>
+      <c r="F28">
+        <v>0</v>
+      </c>
+      <c r="G28">
+        <v>0</v>
+      </c>
+      <c r="H28">
+        <v>0</v>
+      </c>
+      <c r="I28">
+        <v>0</v>
+      </c>
+      <c r="J28">
+        <v>0</v>
+      </c>
+      <c r="K28">
+        <v>0</v>
+      </c>
+      <c r="L28">
+        <v>1</v>
+      </c>
+      <c r="M28">
+        <v>-3.103098014528236</v>
+      </c>
+      <c r="N28">
+        <v>0.002909203899274245</v>
+      </c>
+      <c r="O28">
+        <v>0</v>
+      </c>
+      <c r="P28">
+        <v>-0.2840740385001697</v>
+      </c>
+      <c r="Q28">
+        <v>0</v>
+      </c>
+      <c r="R28">
+        <v>-0.00379453607494788</v>
+      </c>
+      <c r="S28">
+        <v>0.01212157262818762</v>
+      </c>
+      <c r="T28">
+        <v>0</v>
+      </c>
+      <c r="U28">
+        <v>0</v>
+      </c>
+      <c r="V28">
+        <v>0</v>
+      </c>
+      <c r="W28">
+        <v>0.9998147760637069</v>
+      </c>
+      <c r="X28">
+        <v>-0.01924613116134162</v>
+      </c>
+    </row>
+    <row r="29" spans="1:24">
+      <c r="A29">
+        <v>0</v>
+      </c>
+      <c r="B29">
+        <v>0</v>
+      </c>
+      <c r="C29">
+        <v>0</v>
+      </c>
+      <c r="D29">
+        <v>0</v>
+      </c>
+      <c r="E29">
+        <v>0</v>
+      </c>
+      <c r="F29">
+        <v>0</v>
+      </c>
+      <c r="G29">
+        <v>0</v>
+      </c>
+      <c r="H29">
+        <v>0</v>
+      </c>
+      <c r="I29">
+        <v>0</v>
+      </c>
+      <c r="J29">
+        <v>0</v>
+      </c>
+      <c r="K29">
+        <v>0</v>
+      </c>
+      <c r="L29">
+        <v>1</v>
+      </c>
+      <c r="M29">
+        <v>2.611914279063765</v>
+      </c>
+      <c r="N29">
+        <v>0.002881064658870882</v>
+      </c>
+      <c r="O29">
+        <v>0</v>
+      </c>
+      <c r="P29">
+        <v>-0.2840740385001697</v>
+      </c>
+      <c r="Q29">
+        <v>0</v>
+      </c>
+      <c r="R29">
+        <v>-0.008837274167568758</v>
+      </c>
+      <c r="S29">
+        <v>0.01476056269612794</v>
+      </c>
+      <c r="T29">
+        <v>0</v>
+      </c>
+      <c r="U29">
+        <v>0</v>
+      </c>
+      <c r="V29">
+        <v>0</v>
+      </c>
+      <c r="W29">
+        <v>0.9651346067484005</v>
+      </c>
+      <c r="X29">
+        <v>0.261754065597099</v>
+      </c>
+    </row>
+    <row r="30" spans="1:24">
+      <c r="A30">
+        <v>0</v>
+      </c>
+      <c r="B30">
+        <v>0</v>
+      </c>
+      <c r="C30">
+        <v>0</v>
+      </c>
+      <c r="D30">
+        <v>0</v>
+      </c>
+      <c r="E30">
+        <v>0</v>
+      </c>
+      <c r="F30">
+        <v>0</v>
+      </c>
+      <c r="G30">
+        <v>0</v>
+      </c>
+      <c r="H30">
+        <v>0</v>
+      </c>
+      <c r="I30">
+        <v>0</v>
+      </c>
+      <c r="J30">
+        <v>0</v>
+      </c>
+      <c r="K30">
+        <v>0</v>
+      </c>
+      <c r="L30">
+        <v>1</v>
+      </c>
+      <c r="M30">
+        <v>2.043809229337667</v>
+      </c>
+      <c r="N30">
+        <v>0.003086940094290075</v>
+      </c>
+      <c r="O30">
+        <v>0</v>
+      </c>
+      <c r="P30">
+        <v>-0.2840740385001697</v>
+      </c>
+      <c r="Q30">
+        <v>0</v>
+      </c>
+      <c r="R30">
+        <v>-0.01254948492053477</v>
+      </c>
+      <c r="S30">
+        <v>0.01925955475697534</v>
+      </c>
+      <c r="T30">
+        <v>0</v>
+      </c>
+      <c r="U30">
+        <v>0</v>
+      </c>
+      <c r="V30">
+        <v>0</v>
+      </c>
+      <c r="W30">
+        <v>0.8531032862798621</v>
+      </c>
+      <c r="X30">
+        <v>0.5217420655251976</v>
+      </c>
+    </row>
+    <row r="31" spans="1:24">
+      <c r="A31">
+        <v>0</v>
+      </c>
+      <c r="B31">
+        <v>0</v>
+      </c>
+      <c r="C31">
+        <v>0</v>
+      </c>
+      <c r="D31">
+        <v>0</v>
+      </c>
+      <c r="E31">
+        <v>0</v>
+      </c>
+      <c r="F31">
+        <v>0</v>
+      </c>
+      <c r="G31">
+        <v>0</v>
+      </c>
+      <c r="H31">
+        <v>0</v>
+      </c>
+      <c r="I31">
+        <v>0</v>
+      </c>
+      <c r="J31">
+        <v>0</v>
+      </c>
+      <c r="K31">
+        <v>0</v>
+      </c>
+      <c r="L31">
+        <v>1</v>
+      </c>
+      <c r="M31">
+        <v>1.475538880621529</v>
+      </c>
+      <c r="N31">
+        <v>0.003112396549254364</v>
+      </c>
+      <c r="O31">
+        <v>0</v>
+      </c>
+      <c r="P31">
+        <v>-0.2840740385001697</v>
+      </c>
+      <c r="Q31">
+        <v>0</v>
+      </c>
+      <c r="R31">
+        <v>-0.01263811086807229</v>
+      </c>
+      <c r="S31">
+        <v>0.02537968328350474</v>
+      </c>
+      <c r="T31">
+        <v>0</v>
+      </c>
+      <c r="U31">
+        <v>0</v>
+      </c>
+      <c r="V31">
+        <v>0</v>
+      </c>
+      <c r="W31">
+        <v>0.6726390373710138</v>
+      </c>
+      <c r="X31">
+        <v>0.7399707598308165</v>
+      </c>
+    </row>
+    <row r="32" spans="1:24">
+      <c r="A32">
+        <v>0</v>
+      </c>
+      <c r="B32">
+        <v>0</v>
+      </c>
+      <c r="C32">
+        <v>0</v>
+      </c>
+      <c r="D32">
+        <v>0</v>
+      </c>
+      <c r="E32">
+        <v>0</v>
+      </c>
+      <c r="F32">
+        <v>0</v>
+      </c>
+      <c r="G32">
+        <v>0</v>
+      </c>
+      <c r="H32">
+        <v>0</v>
+      </c>
+      <c r="I32">
+        <v>0</v>
+      </c>
+      <c r="J32">
+        <v>0</v>
+      </c>
+      <c r="K32">
+        <v>0</v>
+      </c>
+      <c r="L32">
+        <v>1</v>
+      </c>
+      <c r="M32">
+        <v>0.9103132439837367</v>
+      </c>
+      <c r="N32">
+        <v>0.00290341680228956</v>
+      </c>
+      <c r="O32">
+        <v>0</v>
+      </c>
+      <c r="P32">
+        <v>-0.2840740385001697</v>
+      </c>
+      <c r="Q32">
+        <v>0</v>
+      </c>
+      <c r="R32">
+        <v>-0.008776335152859445</v>
+      </c>
+      <c r="S32">
+        <v>0.03011039588339843</v>
+      </c>
+      <c r="T32">
+        <v>0</v>
+      </c>
+      <c r="U32">
+        <v>0</v>
+      </c>
+      <c r="V32">
+        <v>0</v>
+      </c>
+      <c r="W32">
+        <v>0.4396029958466253</v>
+      </c>
+      <c r="X32">
+        <v>0.8981921876985304</v>
+      </c>
+    </row>
+    <row r="33" spans="1:24">
+      <c r="A33">
+        <v>0</v>
+      </c>
+      <c r="B33">
+        <v>0</v>
+      </c>
+      <c r="C33">
+        <v>0</v>
+      </c>
+      <c r="D33">
+        <v>0</v>
+      </c>
+      <c r="E33">
+        <v>0</v>
+      </c>
+      <c r="F33">
+        <v>0</v>
+      </c>
+      <c r="G33">
+        <v>0</v>
+      </c>
+      <c r="H33">
+        <v>0</v>
+      </c>
+      <c r="I33">
+        <v>0</v>
+      </c>
+      <c r="J33">
+        <v>0</v>
+      </c>
+      <c r="K33">
+        <v>0</v>
+      </c>
+      <c r="L33">
+        <v>1</v>
+      </c>
+      <c r="M33">
+        <v>0.3392567360161321</v>
+      </c>
+      <c r="N33">
+        <v>0.002899580866121513</v>
+      </c>
+      <c r="O33">
+        <v>0</v>
+      </c>
+      <c r="P33">
+        <v>-0.2840740385001697</v>
+      </c>
+      <c r="Q33">
+        <v>0</v>
+      </c>
+      <c r="R33">
+        <v>-0.003522599518738647</v>
+      </c>
+      <c r="S33">
+        <v>0.03259521485336041</v>
+      </c>
+      <c r="T33">
+        <v>0</v>
+      </c>
+      <c r="U33">
+        <v>0</v>
+      </c>
+      <c r="V33">
+        <v>0</v>
+      </c>
+      <c r="W33">
+        <v>0.1688160625623652</v>
+      </c>
+      <c r="X33">
+        <v>0.9856475724217757</v>
+      </c>
+    </row>
+    <row r="34" spans="1:24">
+      <c r="A34">
+        <v>0</v>
+      </c>
+      <c r="B34">
+        <v>0</v>
+      </c>
+      <c r="C34">
+        <v>0</v>
+      </c>
+      <c r="D34">
+        <v>0</v>
+      </c>
+      <c r="E34">
+        <v>0</v>
+      </c>
+      <c r="F34">
+        <v>0</v>
+      </c>
+      <c r="G34">
+        <v>0</v>
+      </c>
+      <c r="H34">
+        <v>0</v>
+      </c>
+      <c r="I34">
+        <v>0</v>
+      </c>
+      <c r="J34">
+        <v>0</v>
+      </c>
+      <c r="K34">
+        <v>0</v>
+      </c>
+      <c r="L34">
+        <v>1</v>
+      </c>
+      <c r="M34">
+        <v>-0.2287409930948867</v>
+      </c>
+      <c r="N34">
+        <v>0.002959088850245307</v>
+      </c>
+      <c r="O34">
+        <v>0</v>
+      </c>
+      <c r="P34">
+        <v>-0.2840740385001697</v>
+      </c>
+      <c r="Q34">
+        <v>0</v>
+      </c>
+      <c r="R34">
+        <v>0.002264316509144439</v>
+      </c>
+      <c r="S34">
+        <v>0.03217578095239034</v>
+      </c>
+      <c r="T34">
+        <v>0</v>
+      </c>
+      <c r="U34">
+        <v>0</v>
+      </c>
+      <c r="V34">
+        <v>0</v>
+      </c>
+      <c r="W34">
+        <v>-0.1141213202528896</v>
+      </c>
+      <c r="X34">
+        <v>0.9934668209174061</v>
+      </c>
+    </row>
+    <row r="35" spans="1:24">
+      <c r="A35">
+        <v>0</v>
+      </c>
+      <c r="B35">
+        <v>0</v>
+      </c>
+      <c r="C35">
+        <v>0</v>
+      </c>
+      <c r="D35">
+        <v>0</v>
+      </c>
+      <c r="E35">
+        <v>0</v>
+      </c>
+      <c r="F35">
+        <v>0</v>
+      </c>
+      <c r="G35">
+        <v>0</v>
+      </c>
+      <c r="H35">
+        <v>0</v>
+      </c>
+      <c r="I35">
+        <v>0</v>
+      </c>
+      <c r="J35">
+        <v>0</v>
+      </c>
+      <c r="K35">
+        <v>0</v>
+      </c>
+      <c r="L35">
+        <v>1</v>
+      </c>
+      <c r="M35">
+        <v>-0.7969889775141965</v>
+      </c>
+      <c r="N35">
+        <v>0.002978918012820397</v>
+      </c>
+      <c r="O35">
+        <v>0</v>
+      </c>
+      <c r="P35">
+        <v>-0.2840740385001697</v>
+      </c>
+      <c r="Q35">
+        <v>0</v>
+      </c>
+      <c r="R35">
+        <v>0.006944613709535693</v>
+      </c>
+      <c r="S35">
+        <v>0.02857762348318787</v>
+      </c>
+      <c r="T35">
+        <v>0</v>
+      </c>
+      <c r="U35">
+        <v>0</v>
+      </c>
+      <c r="V35">
+        <v>0</v>
+      </c>
+      <c r="W35">
+        <v>-0.3880312338298749</v>
+      </c>
+      <c r="X35">
+        <v>0.9216462236522563</v>
+      </c>
+    </row>
+    <row r="36" spans="1:24">
+      <c r="A36">
+        <v>0</v>
+      </c>
+      <c r="B36">
+        <v>0</v>
+      </c>
+      <c r="C36">
+        <v>0</v>
+      </c>
+      <c r="D36">
+        <v>0</v>
+      </c>
+      <c r="E36">
+        <v>0</v>
+      </c>
+      <c r="F36">
+        <v>0</v>
+      </c>
+      <c r="G36">
+        <v>0</v>
+      </c>
+      <c r="H36">
+        <v>0</v>
+      </c>
+      <c r="I36">
+        <v>0</v>
+      </c>
+      <c r="J36">
+        <v>0</v>
+      </c>
+      <c r="K36">
+        <v>0</v>
+      </c>
+      <c r="L36">
+        <v>1</v>
+      </c>
+      <c r="M36">
+        <v>-1.365116757992632</v>
+      </c>
+      <c r="N36">
+        <v>0.002897334512653232</v>
+      </c>
+      <c r="O36">
+        <v>0</v>
+      </c>
+      <c r="P36">
+        <v>-0.2840740385001697</v>
+      </c>
+      <c r="Q36">
+        <v>0</v>
+      </c>
+      <c r="R36">
+        <v>0.00866256761289818</v>
+      </c>
+      <c r="S36">
+        <v>0.02296176182468947</v>
+      </c>
+      <c r="T36">
+        <v>0</v>
+      </c>
+      <c r="U36">
+        <v>0</v>
+      </c>
+      <c r="V36">
+        <v>0</v>
+      </c>
+      <c r="W36">
+        <v>-0.6307802897407678</v>
+      </c>
+      <c r="X36">
+        <v>0.7759614849169725</v>
+      </c>
+    </row>
+    <row r="37" spans="1:24">
+      <c r="A37">
+        <v>0</v>
+      </c>
+      <c r="B37">
+        <v>0</v>
+      </c>
+      <c r="C37">
+        <v>0</v>
+      </c>
+      <c r="D37">
+        <v>0</v>
+      </c>
+      <c r="E37">
+        <v>0</v>
+      </c>
+      <c r="F37">
+        <v>0</v>
+      </c>
+      <c r="G37">
+        <v>0</v>
+      </c>
+      <c r="H37">
+        <v>0</v>
+      </c>
+      <c r="I37">
+        <v>0</v>
+      </c>
+      <c r="J37">
+        <v>0</v>
+      </c>
+      <c r="K37">
+        <v>0</v>
+      </c>
+      <c r="L37">
+        <v>1</v>
+      </c>
+      <c r="M37">
+        <v>-1.933287224004241</v>
+      </c>
+      <c r="N37">
+        <v>0.00290915907935897</v>
+      </c>
+      <c r="O37">
+        <v>0</v>
+      </c>
+      <c r="P37">
+        <v>-0.2840740385001697</v>
+      </c>
+      <c r="Q37">
+        <v>0</v>
+      </c>
+      <c r="R37">
+        <v>0.007435748479356503</v>
+      </c>
+      <c r="S37">
+        <v>0.01734932124774714</v>
+      </c>
+      <c r="T37">
+        <v>0</v>
+      </c>
+      <c r="U37">
+        <v>0</v>
+      </c>
+      <c r="V37">
+        <v>0</v>
+      </c>
+      <c r="W37">
+        <v>-0.8229837060344534</v>
+      </c>
+      <c r="X37">
+        <v>0.5680649783271245</v>
+      </c>
+    </row>
+    <row r="38" spans="1:24">
+      <c r="A38">
+        <v>0</v>
+      </c>
+      <c r="B38">
+        <v>0</v>
+      </c>
+      <c r="C38">
+        <v>0</v>
+      </c>
+      <c r="D38">
+        <v>0</v>
+      </c>
+      <c r="E38">
+        <v>0</v>
+      </c>
+      <c r="F38">
+        <v>0</v>
+      </c>
+      <c r="G38">
+        <v>0</v>
+      </c>
+      <c r="H38">
+        <v>0</v>
+      </c>
+      <c r="I38">
+        <v>0</v>
+      </c>
+      <c r="J38">
+        <v>0</v>
+      </c>
+      <c r="K38">
+        <v>0</v>
+      </c>
+      <c r="L38">
+        <v>1</v>
+      </c>
+      <c r="M38">
+        <v>-2.501375063388792</v>
+      </c>
+      <c r="N38">
+        <v>0.002944478202686793</v>
+      </c>
+      <c r="O38">
+        <v>0</v>
+      </c>
+      <c r="P38">
+        <v>-0.2840740385001697</v>
+      </c>
+      <c r="Q38">
+        <v>0</v>
+      </c>
+      <c r="R38">
+        <v>0.003396204716422554</v>
+      </c>
+      <c r="S38">
+        <v>0.01323441957858047</v>
+      </c>
+      <c r="T38">
+        <v>0</v>
+      </c>
+      <c r="U38">
+        <v>0</v>
+      </c>
+      <c r="V38">
+        <v>0</v>
+      </c>
+      <c r="W38">
+        <v>0.9492011891641794</v>
+      </c>
+      <c r="X38">
+        <v>-0.3146698309169592</v>
+      </c>
+    </row>
+    <row r="39" spans="1:24">
+      <c r="A39">
+        <v>0</v>
+      </c>
+      <c r="B39">
+        <v>0</v>
+      </c>
+      <c r="C39">
+        <v>0</v>
+      </c>
+      <c r="D39">
+        <v>0</v>
+      </c>
+      <c r="E39">
+        <v>0</v>
+      </c>
+      <c r="F39">
+        <v>0</v>
+      </c>
+      <c r="G39">
+        <v>0</v>
+      </c>
+      <c r="H39">
+        <v>0</v>
+      </c>
+      <c r="I39">
+        <v>0</v>
+      </c>
+      <c r="J39">
+        <v>0</v>
+      </c>
+      <c r="K39">
+        <v>0</v>
+      </c>
+      <c r="L39">
+        <v>1</v>
+      </c>
+      <c r="M39">
+        <v>-3.069508981002754</v>
+      </c>
+      <c r="N39">
+        <v>0.002822600066072867</v>
+      </c>
+      <c r="O39">
+        <v>0</v>
+      </c>
+      <c r="P39">
+        <v>-0.2840740385001697</v>
+      </c>
+      <c r="Q39">
+        <v>0</v>
+      </c>
+      <c r="R39">
+        <v>-0.002253932392645269</v>
+      </c>
+      <c r="S39">
+        <v>0.01238033197616705</v>
+      </c>
+      <c r="T39">
+        <v>0</v>
+      </c>
+      <c r="U39">
+        <v>0</v>
+      </c>
+      <c r="V39">
+        <v>0</v>
+      </c>
+      <c r="W39">
+        <v>0.9993505633251377</v>
+      </c>
+      <c r="X39">
+        <v>-0.03603403365888804</v>
+      </c>
+    </row>
+    <row r="40" spans="1:24">
+      <c r="A40">
+        <v>0</v>
+      </c>
+      <c r="B40">
+        <v>0</v>
+      </c>
+      <c r="C40">
+        <v>0</v>
+      </c>
+      <c r="D40">
+        <v>0</v>
+      </c>
+      <c r="E40">
+        <v>0</v>
+      </c>
+      <c r="F40">
+        <v>0</v>
+      </c>
+      <c r="G40">
+        <v>0</v>
+      </c>
+      <c r="H40">
+        <v>0</v>
+      </c>
+      <c r="I40">
+        <v>0</v>
+      </c>
+      <c r="J40">
+        <v>0</v>
+      </c>
+      <c r="K40">
+        <v>0</v>
+      </c>
+      <c r="L40">
+        <v>1</v>
+      </c>
+      <c r="M40">
+        <v>2.645405382325585</v>
+      </c>
+      <c r="N40">
+        <v>0.002636664368894184</v>
+      </c>
+      <c r="O40">
+        <v>0</v>
+      </c>
+      <c r="P40">
+        <v>-0.2840740385001697</v>
+      </c>
+      <c r="Q40">
+        <v>0</v>
+      </c>
+      <c r="R40">
+        <v>-0.007091832075798706</v>
+      </c>
+      <c r="S40">
+        <v>0.01494742647035825</v>
+      </c>
+      <c r="T40">
+        <v>0</v>
+      </c>
+      <c r="U40">
+        <v>0</v>
+      </c>
+      <c r="V40">
+        <v>0</v>
+      </c>
+      <c r="W40">
+        <v>0.9693823028949787</v>
+      </c>
+      <c r="X40">
+        <v>0.2455564106962547</v>
+      </c>
+    </row>
+    <row r="41" spans="1:24">
+      <c r="A41">
+        <v>0</v>
+      </c>
+      <c r="B41">
+        <v>0</v>
+      </c>
+      <c r="C41">
+        <v>0</v>
+      </c>
+      <c r="D41">
+        <v>0</v>
+      </c>
+      <c r="E41">
+        <v>0</v>
+      </c>
+      <c r="F41">
+        <v>0</v>
+      </c>
+      <c r="G41">
+        <v>0</v>
+      </c>
+      <c r="H41">
+        <v>0</v>
+      </c>
+      <c r="I41">
+        <v>0</v>
+      </c>
+      <c r="J41">
+        <v>0</v>
+      </c>
+      <c r="K41">
+        <v>0</v>
+      </c>
+      <c r="L41">
+        <v>1</v>
+      </c>
+      <c r="M41">
+        <v>2.077188852004186</v>
+      </c>
+      <c r="N41">
+        <v>0.002777063396500241</v>
+      </c>
+      <c r="O41">
+        <v>0</v>
+      </c>
+      <c r="P41">
+        <v>-0.2840740385001697</v>
+      </c>
+      <c r="Q41">
+        <v>0</v>
+      </c>
+      <c r="R41">
+        <v>-0.01064464767951944</v>
+      </c>
+      <c r="S41">
+        <v>0.01891687202536278</v>
+      </c>
+      <c r="T41">
+        <v>0</v>
+      </c>
+      <c r="U41">
+        <v>0</v>
+      </c>
+      <c r="V41">
+        <v>0</v>
+      </c>
+      <c r="W41">
+        <v>0.8616918455475912</v>
+      </c>
+      <c r="X41">
+        <v>0.5074319297371681</v>
       </c>
     </row>
   </sheetData>
